--- a/input_data/admin_data/PER/_clean/total-PER.xlsx
+++ b/input_data/admin_data/PER/_clean/total-PER.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1377">
   <si>
     <t>year</t>
   </si>
@@ -4194,34 +4194,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1296</v>
+        <v>1350</v>
       </c>
       <c r="B1" t="s">
-        <v>1297</v>
+        <v>1351</v>
       </c>
       <c r="C1" t="s">
-        <v>1315</v>
+        <v>1369</v>
       </c>
       <c r="D1" t="s">
-        <v>1316</v>
+        <v>1370</v>
       </c>
       <c r="E1" t="s">
-        <v>1317</v>
+        <v>1371</v>
       </c>
       <c r="F1" t="s">
-        <v>1318</v>
+        <v>1372</v>
       </c>
       <c r="G1" t="s">
-        <v>1319</v>
+        <v>1373</v>
       </c>
       <c r="H1" t="s">
-        <v>1320</v>
+        <v>1374</v>
       </c>
       <c r="I1" t="s">
-        <v>1321</v>
+        <v>1375</v>
       </c>
       <c r="J1" t="s">
-        <v>1322</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2">
@@ -4229,16 +4229,16 @@
         <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>1298</v>
+        <v>1352</v>
       </c>
       <c r="C2">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D2">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E2">
-        <v>0.76625239849090576</v>
+        <v>0.75727224349975586</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1299</v>
+        <v>1368</v>
       </c>
       <c r="C3">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D3">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E3">
-        <v>0.82962721586227417</v>
+        <v>0.8230818510055542</v>
       </c>
       <c r="F3">
         <v>5000</v>
@@ -4289,16 +4289,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1300</v>
+        <v>1368</v>
       </c>
       <c r="C4">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D4">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E4">
-        <v>0.8637624979019165</v>
+        <v>0.8585284948348999</v>
       </c>
       <c r="F4">
         <v>10000</v>
@@ -4319,16 +4319,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1301</v>
+        <v>1368</v>
       </c>
       <c r="C5">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D5">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E5">
-        <v>0.92587655782699585</v>
+        <v>0.92302888631820679</v>
       </c>
       <c r="F5">
         <v>20000</v>
@@ -4349,16 +4349,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1302</v>
+        <v>1368</v>
       </c>
       <c r="C6">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D6">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E6">
-        <v>0.95640134811401367</v>
+        <v>0.95472633838653564</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -4379,16 +4379,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1303</v>
+        <v>1368</v>
       </c>
       <c r="C7">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D7">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E7">
-        <v>0.97802138328552246</v>
+        <v>0.97717702388763428</v>
       </c>
       <c r="F7">
         <v>50000</v>
@@ -4409,16 +4409,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1304</v>
+        <v>1368</v>
       </c>
       <c r="C8">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D8">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E8">
-        <v>0.98597890138626099</v>
+        <v>0.98544025421142578</v>
       </c>
       <c r="F8">
         <v>70000</v>
@@ -4439,16 +4439,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1305</v>
+        <v>1368</v>
       </c>
       <c r="C9">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D9">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E9">
-        <v>0.99174851179122925</v>
+        <v>0.99143153429031372</v>
       </c>
       <c r="F9">
         <v>100000</v>
@@ -4469,16 +4469,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1306</v>
+        <v>1368</v>
       </c>
       <c r="C10">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D10">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E10">
-        <v>0.99587565660476685</v>
+        <v>0.99571722745895386</v>
       </c>
       <c r="F10">
         <v>150000</v>
@@ -4499,16 +4499,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1307</v>
+        <v>1368</v>
       </c>
       <c r="C11">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D11">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E11">
-        <v>0.99757671356201172</v>
+        <v>0.99748361110687256</v>
       </c>
       <c r="F11">
         <v>200000</v>
@@ -4529,16 +4529,16 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1308</v>
+        <v>1368</v>
       </c>
       <c r="C12">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D12">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E12">
-        <v>0.99884986877441406</v>
+        <v>0.9988057017326355</v>
       </c>
       <c r="F12">
         <v>300000</v>
@@ -4559,16 +4559,16 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1309</v>
+        <v>1368</v>
       </c>
       <c r="C13">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D13">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E13">
-        <v>0.99929690361022949</v>
+        <v>0.99926990270614624</v>
       </c>
       <c r="F13">
         <v>400000</v>
@@ -4589,16 +4589,16 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1310</v>
+        <v>1368</v>
       </c>
       <c r="C14">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D14">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E14">
-        <v>0.99963855743408203</v>
+        <v>0.99962466955184937</v>
       </c>
       <c r="F14">
         <v>600000</v>
@@ -4619,16 +4619,16 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1311</v>
+        <v>1368</v>
       </c>
       <c r="C15">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D15">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E15">
-        <v>0.99977123737335205</v>
+        <v>0.99976241588592529</v>
       </c>
       <c r="F15">
         <v>800000</v>
@@ -4649,16 +4649,16 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1312</v>
+        <v>1368</v>
       </c>
       <c r="C16">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D16">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E16">
-        <v>0.99984085559844971</v>
+        <v>0.99983477592468262</v>
       </c>
       <c r="F16">
         <v>1000000</v>
@@ -4679,16 +4679,16 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1313</v>
+        <v>1368</v>
       </c>
       <c r="C17">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D17">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E17">
-        <v>0.99994516372680664</v>
+        <v>0.9999430775642395</v>
       </c>
       <c r="F17">
         <v>2000000</v>
@@ -4709,16 +4709,16 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1314</v>
+        <v>1368</v>
       </c>
       <c r="C18">
-        <v>32052328</v>
+        <v>30866494</v>
       </c>
       <c r="D18">
-        <v>5311.35693359375</v>
+        <v>5515.40966796875</v>
       </c>
       <c r="E18">
-        <v>0.99997103214263916</v>
+        <v>0.9999699592590332</v>
       </c>
       <c r="F18">
         <v>3000000</v>
@@ -4747,34 +4747,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1323</v>
+        <v>1350</v>
       </c>
       <c r="B1" t="s">
-        <v>1324</v>
+        <v>1351</v>
       </c>
       <c r="C1" t="s">
-        <v>1342</v>
+        <v>1369</v>
       </c>
       <c r="D1" t="s">
-        <v>1343</v>
+        <v>1370</v>
       </c>
       <c r="E1" t="s">
-        <v>1344</v>
+        <v>1371</v>
       </c>
       <c r="F1" t="s">
-        <v>1345</v>
+        <v>1372</v>
       </c>
       <c r="G1" t="s">
-        <v>1346</v>
+        <v>1373</v>
       </c>
       <c r="H1" t="s">
-        <v>1347</v>
+        <v>1374</v>
       </c>
       <c r="I1" t="s">
-        <v>1348</v>
+        <v>1375</v>
       </c>
       <c r="J1" t="s">
-        <v>1349</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2">
@@ -4782,16 +4782,16 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>1325</v>
+        <v>1352</v>
       </c>
       <c r="C2">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D2">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E2">
-        <v>0.7646033763885498</v>
+        <v>0.7574123740196228</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4812,16 +4812,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1368</v>
       </c>
       <c r="C3">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D3">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E3">
-        <v>0.82631230354309082</v>
+        <v>0.8210064172744751</v>
       </c>
       <c r="F3">
         <v>5000</v>
@@ -4842,16 +4842,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1327</v>
+        <v>1368</v>
       </c>
       <c r="C4">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D4">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E4">
-        <v>0.85612207651138306</v>
+        <v>0.85172677040100098</v>
       </c>
       <c r="F4">
         <v>10000</v>
@@ -4872,16 +4872,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1328</v>
+        <v>1368</v>
       </c>
       <c r="C5">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D5">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E5">
-        <v>0.92152142524719238</v>
+        <v>0.91912400722503662</v>
       </c>
       <c r="F5">
         <v>20000</v>
@@ -4902,16 +4902,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1329</v>
+        <v>1368</v>
       </c>
       <c r="C6">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D6">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E6">
-        <v>0.9535984992980957</v>
+        <v>0.95218104124069214</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -4932,16 +4932,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1330</v>
+        <v>1368</v>
       </c>
       <c r="C7">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D7">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E7">
-        <v>0.97680544853210449</v>
+        <v>0.97609686851501465</v>
       </c>
       <c r="F7">
         <v>50000</v>
@@ -4962,16 +4962,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1331</v>
+        <v>1368</v>
       </c>
       <c r="C8">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D8">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E8">
-        <v>0.98531007766723633</v>
+        <v>0.98486131429672241</v>
       </c>
       <c r="F8">
         <v>70000</v>
@@ -4992,16 +4992,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1332</v>
+        <v>1368</v>
       </c>
       <c r="C9">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D9">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E9">
-        <v>0.99135547876358032</v>
+        <v>0.99109137058258057</v>
       </c>
       <c r="F9">
         <v>100000</v>
@@ -5022,16 +5022,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1333</v>
+        <v>1368</v>
       </c>
       <c r="C10">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D10">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E10">
-        <v>0.99572807550430298</v>
+        <v>0.99559754133224487</v>
       </c>
       <c r="F10">
         <v>150000</v>
@@ -5052,16 +5052,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1334</v>
+        <v>1368</v>
       </c>
       <c r="C11">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D11">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E11">
-        <v>0.99747717380523682</v>
+        <v>0.99740010499954224</v>
       </c>
       <c r="F11">
         <v>200000</v>
@@ -5082,16 +5082,16 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1335</v>
+        <v>1368</v>
       </c>
       <c r="C12">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D12">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E12">
-        <v>0.9987943172454834</v>
+        <v>0.99875748157501221</v>
       </c>
       <c r="F12">
         <v>300000</v>
@@ -5112,16 +5112,16 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1336</v>
+        <v>1368</v>
       </c>
       <c r="C13">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D13">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E13">
-        <v>0.99926704168319702</v>
+        <v>0.99924463033676147</v>
       </c>
       <c r="F13">
         <v>400000</v>
@@ -5142,16 +5142,16 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1337</v>
+        <v>1368</v>
       </c>
       <c r="C14">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D14">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E14">
-        <v>0.99963140487670898</v>
+        <v>0.99962013959884644</v>
       </c>
       <c r="F14">
         <v>600000</v>
@@ -5172,16 +5172,16 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1338</v>
+        <v>1368</v>
       </c>
       <c r="C15">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D15">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E15">
-        <v>0.99976819753646851</v>
+        <v>0.99976116418838501</v>
       </c>
       <c r="F15">
         <v>800000</v>
@@ -5202,16 +5202,16 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1339</v>
+        <v>1368</v>
       </c>
       <c r="C16">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D16">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E16">
-        <v>0.99983930587768555</v>
+        <v>0.99983441829681396</v>
       </c>
       <c r="F16">
         <v>1000000</v>
@@ -5232,16 +5232,16 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1340</v>
+        <v>1368</v>
       </c>
       <c r="C17">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D17">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E17">
-        <v>0.99994575977325439</v>
+        <v>0.99994409084320068</v>
       </c>
       <c r="F17">
         <v>2000000</v>
@@ -5262,16 +5262,16 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1341</v>
+        <v>1368</v>
       </c>
       <c r="C18">
-        <v>32281556</v>
+        <v>31324636</v>
       </c>
       <c r="D18">
-        <v>5794.39453125</v>
+        <v>5971.404296875</v>
       </c>
       <c r="E18">
-        <v>0.99997049570083618</v>
+        <v>0.99996960163116455</v>
       </c>
       <c r="F18">
         <v>3000000</v>
@@ -5338,13 +5338,13 @@
         <v>1352</v>
       </c>
       <c r="C2">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D2">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E2">
-        <v>0.75878274440765381</v>
+        <v>0.75383388996124268</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5365,16 +5365,16 @@
     <row r="3">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>1353</v>
+        <v>1368</v>
       </c>
       <c r="C3">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D3">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E3">
-        <v>0.82023274898529053</v>
+        <v>0.81654459238052368</v>
       </c>
       <c r="F3">
         <v>5000</v>
@@ -5395,16 +5395,16 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="C4">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D4">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E4">
-        <v>0.84897404909133911</v>
+        <v>0.84587550163269043</v>
       </c>
       <c r="F4">
         <v>10000</v>
@@ -5425,16 +5425,16 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
       <c r="C5">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D5">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E5">
-        <v>0.91183388233184814</v>
+        <v>0.91002506017684937</v>
       </c>
       <c r="F5">
         <v>20000</v>
@@ -5455,16 +5455,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
       <c r="C6">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D6">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E6">
-        <v>0.94882231950759888</v>
+        <v>0.9477723240852356</v>
       </c>
       <c r="F6">
         <v>30000</v>
@@ -5485,16 +5485,16 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
       <c r="C7">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D7">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E7">
-        <v>0.97474527359008789</v>
+        <v>0.97422713041305542</v>
       </c>
       <c r="F7">
         <v>50000</v>
@@ -5515,16 +5515,16 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="C8">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D8">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E8">
-        <v>0.98410093784332275</v>
+        <v>0.98377478122711182</v>
       </c>
       <c r="F8">
         <v>70000</v>
@@ -5545,16 +5545,16 @@
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>1359</v>
+        <v>1368</v>
       </c>
       <c r="C9">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D9">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E9">
-        <v>0.99054896831512451</v>
+        <v>0.99035501480102539</v>
       </c>
       <c r="F9">
         <v>100000</v>
@@ -5575,16 +5575,16 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="C10">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D10">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E10">
-        <v>0.99527031183242798</v>
+        <v>0.99517327547073364</v>
       </c>
       <c r="F10">
         <v>150000</v>
@@ -5605,16 +5605,16 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="C11">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D11">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E11">
-        <v>0.99717110395431519</v>
+        <v>0.99711304903030396</v>
       </c>
       <c r="F11">
         <v>200000</v>
@@ -5635,16 +5635,16 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="C12">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D12">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E12">
-        <v>0.99867373704910278</v>
+        <v>0.99864649772644043</v>
       </c>
       <c r="F12">
         <v>300000</v>
@@ -5665,16 +5665,16 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="C13">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D13">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E13">
-        <v>0.9992060661315918</v>
+        <v>0.99918973445892334</v>
       </c>
       <c r="F13">
         <v>400000</v>
@@ -5695,16 +5695,16 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="C14">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D14">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E14">
-        <v>0.99960267543792725</v>
+        <v>0.99959456920623779</v>
       </c>
       <c r="F14">
         <v>600000</v>
@@ -5725,16 +5725,16 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="C15">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D15">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E15">
-        <v>0.9997519850730896</v>
+        <v>0.99974685907363892</v>
       </c>
       <c r="F15">
         <v>800000</v>
@@ -5755,16 +5755,16 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C16">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D16">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E16">
-        <v>0.99982631206512451</v>
+        <v>0.99982273578643799</v>
       </c>
       <c r="F16">
         <v>1000000</v>
@@ -5785,16 +5785,16 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C17">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D17">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E17">
-        <v>0.99993711709976196</v>
+        <v>0.9999358057975769</v>
       </c>
       <c r="F17">
         <v>2000000</v>
@@ -5818,13 +5818,13 @@
         <v>1368</v>
       </c>
       <c r="C18">
-        <v>32552004</v>
+        <v>31897584</v>
       </c>
       <c r="D18">
-        <v>6411.2822265625</v>
+        <v>6542.81787109375</v>
       </c>
       <c r="E18">
-        <v>0.99996495246887207</v>
+        <v>0.99996423721313477</v>
       </c>
       <c r="F18">
         <v>3000000</v>
